--- a/Requirements/SIQ/SIQ.xlsx
+++ b/Requirements/SIQ/SIQ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alaa Osama\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohamed Mazrouaa\Documents\GitHub\learning-hub\Requirements\SIQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031EEF4F-F968-44DF-8FDE-25817C322233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F015F3-3914-4458-96F2-9A75D96563E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{37B1F361-B0F7-41CD-97E3-8AA2BCF554F3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>Status</t>
   </si>
@@ -47,6 +47,31 @@
     <t xml:space="preserve"> Features </t>
   </si>
   <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>Learning Hub Web Application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learning hub is a web platform that will act as an online free encyclopedia hosting tons of information so the users can explore and receive knowledge in different life domain and also to be part of the community to contribute and share their knowledge.
+</t>
+  </si>
+  <si>
+    <t>Omar</t>
+  </si>
+  <si>
+    <t>Approved by:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Register </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.LOGIN </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -56,7 +81,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>User</t>
+      <t>1-User</t>
     </r>
     <r>
       <rPr>
@@ -78,7 +103,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Admin</t>
+      <t>2-Admin</t>
     </r>
     <r>
       <rPr>
@@ -92,16 +117,87 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Notification </t>
-  </si>
-  <si>
-    <t>notification will appear when a new article is added in the 
+    <t>3.Navigate</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Navigate from Home page to Categories page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1-categories page include all categories 
+2-home page include categories that user follow
+3-home page include drop down list contains: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>logout, user profile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">4.Add </t>
+  </si>
+  <si>
+    <t>1-User and Admin can add articles, videos ,recordings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.Edit   </t>
+  </si>
+  <si>
+    <t>1-User can edit his own articles including videos and recordings
+2-Admin can edit all articles including videos and recordings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.Delete   </t>
+  </si>
+  <si>
+    <t>1-User can delete his own articles including videos and recordings
+2-Admin can delete all articles including videos and recordings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.Notification </t>
+  </si>
+  <si>
+    <t>1-notification will appear when a new article is added in the 
 followed category only</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">1- User can create new account using:
-- </t>
+      <t xml:space="preserve">User can create new account using:
+1- </t>
     </r>
     <r>
       <rPr>
@@ -123,7 +219,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-- </t>
+2- </t>
     </r>
     <r>
       <rPr>
@@ -145,7 +241,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-- </t>
+3- </t>
     </r>
     <r>
       <rPr>
@@ -171,28 +267,37 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Register </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOGIN </t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Navigate</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Navigate from Home page to Categories page</t>
+    <t>1.Description</t>
+  </si>
+  <si>
+    <t>2.Features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Users will have to create an account using email, unique username and a strong password.
+2- Users can navigate between different categories or publish articles, upload videos or record voice recordings.
+3- Users can follow specific Categories to get notifications whenever any articles is added in that category by any user.
+</t>
+  </si>
+  <si>
+    <t>3.Constraints</t>
+  </si>
+  <si>
+    <t>1-Web-based system / PC based
+2-Unique user IDs
+3-Admin features needed</t>
+  </si>
+  <si>
+    <t>4.Stakeholders</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1-User</t>
     </r>
     <r>
       <rPr>
@@ -203,175 +308,17 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-home page include all categories 
-home page include categories that user follow
-home page include drop down list contains: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>logout, user profile</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Add </t>
-  </si>
-  <si>
-    <t>User and Admin can add articles, videos ,recordings.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit   </t>
-  </si>
-  <si>
-    <t>User can edit his own articles including videos and recordings
-Admin can edit all articles including videos and recordings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete   </t>
-  </si>
-  <si>
-    <t>User can delete his own articles including videos and recordings
-Admin can delete all articles including videos and recordings</t>
-  </si>
-  <si>
-    <t>Approved</t>
-  </si>
-  <si>
-    <t>Learning Hub Web Application</t>
-  </si>
-  <si>
-    <t>Features</t>
-  </si>
-  <si>
-    <t>Constraints</t>
-  </si>
-  <si>
-    <t>Stakeholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Learning hub is a web platform that will act as an online free encyclopedia hosting tons of information so the users can explore and receive knowledge in different life domain and also to be part of the community to contribute and share their knowledge.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Users will have to create an account using email, unique username and a strong password.
-2. Users can navigate between different categories or publish articles, upload videos or record voice recordings.
-3. Users can follow specific Categories to get notifications whenever any articles is added in that category by any user.
-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>•</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Web-based system / PC based
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>•</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Unique user IDs
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>•</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Admin features needed</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>•User</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>•Admin</t>
-    </r>
-  </si>
-  <si>
-    <t>Omar</t>
-  </si>
-  <si>
-    <t>Approved by:</t>
+2-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Admin</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -879,9 +826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B18CAFFC-B3CD-4E0A-8E94-DA8C184BD487}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
@@ -900,7 +845,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>0</v>
@@ -909,130 +854,130 @@
         <v>1</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G1" s="8"/>
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="82.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D2" s="17"/>
       <c r="F2" s="9" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D3" s="17"/>
       <c r="F3" s="9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="84.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D4" s="17"/>
       <c r="F4" s="9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D5" s="17"/>
       <c r="F5" s="9" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="58.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:8" ht="52.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:8" ht="48.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>4</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="D8" s="17"/>
     </row>
     <row r="9" spans="1:8" ht="21.6" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="D9" s="21" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="C10" s="6"/>
       <c r="D10" s="22" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="21.6" thickTop="1" x14ac:dyDescent="0.4">
